--- a/biology/Zoologie/Gekko_swinhonis/Gekko_swinhonis.xlsx
+++ b/biology/Zoologie/Gekko_swinhonis/Gekko_swinhonis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gekko swinhonis est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gekko swinhonis est une espèce de geckos de la famille des Gekkonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Chine[1]. Elle se rencontre au Gansu, au Ningxia, au Shaanxi, au Shanxi, au Hebei, au Liaoning, au Shandong, au Henan, au Anhui, au Jiangsu et au Zhejiang.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Chine. Elle se rencontre au Gansu, au Ningxia, au Shaanxi, au Shanxi, au Hebei, au Liaoning, au Shandong, au Henan, au Anhui, au Jiangsu et au Zhejiang.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Robert Swinhoe[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Robert Swinhoe.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Günther, 1864 : The reptiles of British India. London, Taylor &amp; Francis, p. 1-452 (texte intégral).</t>
         </is>
